--- a/STAT_ASSIGNMENT.xlsx
+++ b/STAT_ASSIGNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDDBD2-BCDB-4AF8-80E7-938D04E08D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39376A03-B1CC-4BBF-BAA5-F34ED89772A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{792DD0E4-1422-46E6-B1CF-34D018132B77}"/>
   </bookViews>
@@ -2022,10 +2022,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2444,15 +2444,15 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2511,11 +2511,11 @@
       <c r="H4">
         <v>8.4333333333333336</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f>AVERAGE(F4:F500)</f>
         <v>3041.4567404426562</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="N4">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>-2621.4567404426562</v>
@@ -2618,10 +2618,10 @@
       <c r="H7">
         <v>0.96</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10"/>
       <c r="N7">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>1794.5432595573438</v>
@@ -2656,11 +2656,11 @@
       <c r="H8">
         <v>0.99</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f>SUM(P4:P500)</f>
         <v>5118904401.3199224</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
       <c r="N8">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>2886.5432595573438</v>
@@ -2763,10 +2763,10 @@
       <c r="H11">
         <v>1.07</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="N11">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>3186.5432595573438</v>
@@ -2801,11 +2801,11 @@
       <c r="H12">
         <v>1.01</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <f>COUNT(F4:F500)-1</f>
         <v>496</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
       <c r="N12">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>6546.5432595573438</v>
@@ -2908,10 +2908,10 @@
       <c r="H15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="N15">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>5514.5432595573438</v>
@@ -2946,11 +2946,11 @@
       <c r="H16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <f>J8/J12</f>
         <v>10320371.776854683</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="9"/>
       <c r="N16">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>5982.5432595573438</v>
@@ -3053,10 +3053,10 @@
       <c r="H19">
         <v>0.91</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="9"/>
       <c r="N19">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>4446.5432595573438</v>
@@ -3091,11 +3091,11 @@
       <c r="H20">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <f>SQRT(J16)</f>
         <v>3212.5335448606111</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="9"/>
       <c r="N20">
         <f>Sheet1[[#This Row],[Column6]]-$J$4</f>
         <v>4134.5432595573438</v>
@@ -19427,16 +19427,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19522,12 +19522,12 @@
       <c r="D4" s="4">
         <v>7.6133333333333324</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" ref="J4:J33" si="0">B2-$G$7</f>
         <v>-5935.2</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4">
         <f>J4*J4</f>
         <v>35226599.039999999</v>
@@ -19543,12 +19543,12 @@
       <c r="D5" s="6">
         <v>0.96</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>-5875.2</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5">
         <f t="shared" ref="M5:M33" si="1">J5*J5</f>
         <v>34517975.039999999</v>
@@ -19564,16 +19564,16 @@
       <c r="D6" s="4">
         <v>0.99</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="J6" s="10">
+      <c r="H6" s="10"/>
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>-5827.2</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6">
         <f t="shared" si="1"/>
         <v>33956259.839999996</v>
@@ -19589,17 +19589,17 @@
       <c r="D7" s="6">
         <v>0.97</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <f>AVERAGE(B2:B31)</f>
         <v>6355.2</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="J7" s="10">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>-1519.1999999999998</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7">
         <f t="shared" si="1"/>
         <v>2307968.6399999997</v>
@@ -19615,12 +19615,12 @@
       <c r="D8" s="4">
         <v>0.9</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>-427.19999999999982</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8">
         <f t="shared" si="1"/>
         <v>182499.83999999985</v>
@@ -19636,12 +19636,12 @@
       <c r="D9" s="6">
         <v>1.07</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>-643.19999999999982</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9">
         <f t="shared" si="1"/>
         <v>413706.23999999976</v>
@@ -19657,12 +19657,12 @@
       <c r="D10" s="4">
         <v>1.01</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>-1483.1999999999998</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10">
         <f t="shared" si="1"/>
         <v>2199882.2399999993</v>
@@ -19678,17 +19678,17 @@
       <c r="D11" s="6">
         <v>0.96</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>-127.19999999999982</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11">
         <f t="shared" si="1"/>
         <v>16179.839999999953</v>
@@ -19704,18 +19704,18 @@
       <c r="D12" s="4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f>SUM(M4:M33)</f>
         <v>175072204.79999995</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>3232.8</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12">
         <f t="shared" si="1"/>
         <v>10450995.840000002</v>
@@ -19731,12 +19731,12 @@
       <c r="D13" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>1480.8000000000002</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13">
         <f t="shared" si="1"/>
         <v>2192768.6400000006</v>
@@ -19752,12 +19752,12 @@
       <c r="D14" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>1204.8000000000002</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14">
         <f t="shared" si="1"/>
         <v>1451543.0400000005</v>
@@ -19773,17 +19773,17 @@
       <c r="D15" s="6">
         <v>0.98</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>2200.8000000000002</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15">
         <f t="shared" si="1"/>
         <v>4843520.6400000006</v>
@@ -19799,18 +19799,18 @@
       <c r="D16" s="4">
         <v>1.17</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <f>COUNT(B2:B31)-1</f>
         <v>29</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>2668.8</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16">
         <f t="shared" si="1"/>
         <v>7122493.4400000013</v>
@@ -19826,12 +19826,12 @@
       <c r="D17" s="6">
         <v>0.91</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>904.80000000000018</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17">
         <f t="shared" si="1"/>
         <v>818663.04000000039</v>
@@ -19847,12 +19847,12 @@
       <c r="D18" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>3100.8</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18">
         <f t="shared" si="1"/>
         <v>9614960.6400000006</v>
@@ -19868,17 +19868,17 @@
       <c r="D19" s="6">
         <v>0.91</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9">
         <f t="shared" si="0"/>
         <v>1132.8000000000002</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19">
         <f t="shared" si="1"/>
         <v>1283235.8400000003</v>
@@ -19894,18 +19894,18 @@
       <c r="D20" s="4">
         <v>0.94</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <f>G12/G16</f>
         <v>6036972.5793103436</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <f t="shared" si="0"/>
         <v>820.80000000000018</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20">
         <f t="shared" si="1"/>
         <v>673712.64000000025</v>
@@ -19921,12 +19921,12 @@
       <c r="D21" s="6">
         <v>0.96</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>784.80000000000018</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21">
         <f t="shared" si="1"/>
         <v>615911.04000000027</v>
@@ -19942,12 +19942,12 @@
       <c r="D22" s="4">
         <v>1.01</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <f t="shared" si="0"/>
         <v>640.80000000000018</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
       <c r="M22">
         <f t="shared" si="1"/>
         <v>410624.64000000025</v>
@@ -19963,17 +19963,17 @@
       <c r="D23" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9">
         <f t="shared" si="0"/>
         <v>-1519.1999999999998</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23">
         <f t="shared" si="1"/>
         <v>2307968.6399999997</v>
@@ -19989,18 +19989,18 @@
       <c r="D24" s="4">
         <v>0.95</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <f>SQRT(G20)</f>
         <v>2457.0251482861026</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
         <f t="shared" si="0"/>
         <v>2512.8000000000002</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24">
         <f t="shared" si="1"/>
         <v>6314163.8400000008</v>
@@ -20016,12 +20016,12 @@
       <c r="D25" s="6">
         <v>0.99</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <f t="shared" si="0"/>
         <v>-931.19999999999982</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25">
         <f t="shared" si="1"/>
         <v>867133.43999999971</v>
@@ -20037,12 +20037,12 @@
       <c r="D26" s="4">
         <v>1.02</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f t="shared" si="0"/>
         <v>508.80000000000018</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26">
         <f t="shared" si="1"/>
         <v>258877.44000000018</v>
@@ -20058,12 +20058,12 @@
       <c r="D27" s="6">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <f t="shared" si="0"/>
         <v>2428.8000000000002</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27">
         <f t="shared" si="1"/>
         <v>5899069.4400000013</v>
@@ -20079,12 +20079,12 @@
       <c r="D28" s="4">
         <v>0.94</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <f t="shared" si="0"/>
         <v>424.80000000000018</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28">
         <f t="shared" si="1"/>
         <v>180455.04000000015</v>
@@ -20100,12 +20100,12 @@
       <c r="D29" s="6">
         <v>1.18</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <f t="shared" si="0"/>
         <v>-1063.1999999999998</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29">
         <f t="shared" si="1"/>
         <v>1130394.2399999995</v>
@@ -20121,12 +20121,12 @@
       <c r="D30" s="4">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <f t="shared" si="0"/>
         <v>412.80000000000018</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
       <c r="M30">
         <f t="shared" si="1"/>
         <v>170403.84000000014</v>
@@ -20142,78 +20142,98 @@
       <c r="D31" s="6">
         <v>0.9</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <f t="shared" si="0"/>
         <v>-415.19999999999982</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
       <c r="M31">
         <f t="shared" si="1"/>
         <v>172391.03999999986</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <f t="shared" si="0"/>
         <v>-1423.1999999999998</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32">
         <f t="shared" si="1"/>
         <v>2025498.2399999995</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <f t="shared" si="0"/>
         <v>2728.8</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33">
         <f t="shared" si="1"/>
         <v>7446349.4400000013</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.35">
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="J32:L32"/>
     <mergeCell ref="J33:L33"/>
@@ -20230,32 +20250,12 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J22:L22"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20622,8 +20622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE38B40A-FD57-4537-939C-33271F550767}">
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20640,9 +20640,11 @@
       <c r="C3" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>577</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
